--- a/src/data/ucla_v3.xlsx
+++ b/src/data/ucla_v3.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03c1d81986b3d023/Documents/Breakaway/UCLA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c39d7ec5fff7aa9/Documents/GitHub/ucla-app/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{00A7E9E9-7561-4A75-981F-C37D8566D096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BB143434-3516-4A7E-8A02-CE1A086271A6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{00A7E9E9-7561-4A75-981F-C37D8566D096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DBAA22DC-53D7-479E-9835-EEBA5FC21FF5}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8235" windowWidth="29040" windowHeight="15840" xr2:uid="{71DC9102-A0E5-4CB7-B7E2-10FBE9E6B954}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{71DC9102-A0E5-4CB7-B7E2-10FBE9E6B954}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AT$122</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1240,16 +1243,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0797433-8F3F-4068-B33B-A42B12BA03E7}">
   <dimension ref="A1:AT122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:46" ht="116" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:46" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -3135,7 +3138,7 @@
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
     </row>
-    <row r="16" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>77</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
@@ -3879,7 +3882,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
@@ -4319,7 +4322,7 @@
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
     </row>
-    <row r="26" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>113</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -4683,7 +4686,7 @@
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
     </row>
-    <row r="29" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -4787,7 +4790,7 @@
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
     </row>
-    <row r="30" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="33" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="34" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
@@ -5449,7 +5452,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -5905,7 +5908,7 @@
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
     </row>
-    <row r="39" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -6349,7 +6352,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="43" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>145</v>
       </c>
@@ -6453,7 +6456,7 @@
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
     </row>
-    <row r="44" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>145</v>
       </c>
@@ -6557,7 +6560,7 @@
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
     </row>
-    <row r="45" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>145</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>145</v>
       </c>
@@ -6777,7 +6780,7 @@
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
     </row>
-    <row r="47" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>145</v>
       </c>
@@ -6837,7 +6840,7 @@
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
     </row>
-    <row r="48" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>157</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>157</v>
       </c>
@@ -7043,7 +7046,7 @@
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
     </row>
-    <row r="50" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>157</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="52" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -7519,7 +7522,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="54" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -7637,7 +7640,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="55" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>157</v>
       </c>
@@ -7757,7 +7760,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>157</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>157</v>
       </c>
@@ -7981,7 +7984,7 @@
       <c r="AS57" s="2"/>
       <c r="AT57" s="2"/>
     </row>
-    <row r="58" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>157</v>
       </c>
@@ -8083,7 +8086,7 @@
       <c r="AS58" s="2"/>
       <c r="AT58" s="2"/>
     </row>
-    <row r="59" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>157</v>
       </c>
@@ -8143,7 +8146,7 @@
       <c r="AS59" s="2"/>
       <c r="AT59" s="2"/>
     </row>
-    <row r="60" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>157</v>
       </c>
@@ -8203,7 +8206,7 @@
       <c r="AS60" s="2"/>
       <c r="AT60" s="2"/>
     </row>
-    <row r="61" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>180</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="62" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -8419,7 +8422,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="63" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="64" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="65" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
@@ -8769,7 +8772,7 @@
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
     </row>
-    <row r="66" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
@@ -8829,7 +8832,7 @@
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
     </row>
-    <row r="67" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>180</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="68" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>180</v>
       </c>
@@ -9063,7 +9066,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="69" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>180</v>
       </c>
@@ -9183,7 +9186,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="70" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>180</v>
       </c>
@@ -9303,7 +9306,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>180</v>
       </c>
@@ -9421,7 +9424,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>180</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>180</v>
       </c>
@@ -9651,7 +9654,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="74" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>202</v>
       </c>
@@ -9759,7 +9762,7 @@
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
     </row>
-    <row r="75" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>202</v>
       </c>
@@ -9879,7 +9882,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="76" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>202</v>
       </c>
@@ -9939,7 +9942,7 @@
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
     </row>
-    <row r="77" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>202</v>
       </c>
@@ -9999,7 +10002,7 @@
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
     </row>
-    <row r="78" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>202</v>
       </c>
@@ -10059,7 +10062,7 @@
       <c r="AS78" s="2"/>
       <c r="AT78" s="2"/>
     </row>
-    <row r="79" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>214</v>
       </c>
@@ -10163,7 +10166,7 @@
       <c r="AS79" s="2"/>
       <c r="AT79" s="2"/>
     </row>
-    <row r="80" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>214</v>
       </c>
@@ -10277,7 +10280,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="81" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>214</v>
       </c>
@@ -10357,7 +10360,7 @@
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
     </row>
-    <row r="82" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>214</v>
       </c>
@@ -10481,7 +10484,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>214</v>
       </c>
@@ -10541,7 +10544,7 @@
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
     </row>
-    <row r="84" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>224</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>224</v>
       </c>
@@ -10807,7 +10810,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>224</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>224</v>
       </c>
@@ -11077,7 +11080,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>224</v>
       </c>
@@ -11183,7 +11186,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>224</v>
       </c>
@@ -11315,7 +11318,7 @@
         <v>5.72</v>
       </c>
     </row>
-    <row r="90" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>224</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>224</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>224</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>224</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>13.76</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>224</v>
       </c>
@@ -11917,7 +11920,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="95" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>224</v>
       </c>
@@ -11977,7 +11980,7 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
     </row>
-    <row r="96" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>245</v>
       </c>
@@ -12091,7 +12094,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="97" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>245</v>
       </c>
@@ -12225,7 +12228,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>245</v>
       </c>
@@ -12349,7 +12352,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="99" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>245</v>
       </c>
@@ -12481,7 +12484,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="100" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>245</v>
       </c>
@@ -12613,7 +12616,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="101" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>245</v>
       </c>
@@ -12745,7 +12748,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="102" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>254</v>
       </c>
@@ -12859,7 +12862,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="103" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>254</v>
       </c>
@@ -12995,7 +12998,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>254</v>
       </c>
@@ -13119,7 +13122,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="105" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>254</v>
       </c>
@@ -13179,7 +13182,7 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>254</v>
       </c>
@@ -13307,7 +13310,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="107" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>254</v>
       </c>
@@ -13445,7 +13448,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="108" spans="1:46" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:46" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>254</v>
       </c>
@@ -13553,7 +13556,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="109" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>254</v>
       </c>
@@ -13687,7 +13690,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="110" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>254</v>
       </c>
@@ -13779,7 +13782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>254</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="112" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>254</v>
       </c>
@@ -14011,7 +14014,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="113" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>269</v>
       </c>
@@ -14149,7 +14152,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="114" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>269</v>
       </c>
@@ -14215,7 +14218,7 @@
       <c r="AS114" s="2"/>
       <c r="AT114" s="2"/>
     </row>
-    <row r="115" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>269</v>
       </c>
@@ -14353,7 +14356,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>269</v>
       </c>
@@ -14487,7 +14490,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="117" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>269</v>
       </c>
@@ -14609,7 +14612,7 @@
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
     </row>
-    <row r="118" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>269</v>
       </c>
@@ -14745,7 +14748,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="119" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>269</v>
       </c>
@@ -14869,7 +14872,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>269</v>
       </c>
@@ -15003,7 +15006,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="121" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>269</v>
       </c>
@@ -15063,7 +15066,7 @@
       <c r="AS121" s="2"/>
       <c r="AT121" s="2"/>
     </row>
-    <row r="122" spans="1:46" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:46" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>269</v>
       </c>
@@ -15198,6 +15201,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AT122" xr:uid="{4E6F8F4B-BF60-4721-A016-A5C8249BF8F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>